--- a/teaching/traditional_assets/database/data/egypt/egypt_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2545</v>
+        <v>0.2225</v>
       </c>
       <c r="E2">
-        <v>0.33</v>
+        <v>0.239</v>
       </c>
       <c r="F2">
-        <v>0.104</v>
+        <v>0.145</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0006392378321447603</v>
+        <v>0.000552023048734038</v>
       </c>
       <c r="J2">
-        <v>0.0004626593270155446</v>
+        <v>0.0003710785467716233</v>
       </c>
       <c r="K2">
-        <v>1825.2</v>
+        <v>1737.1</v>
       </c>
       <c r="L2">
-        <v>0.4944867383706754</v>
+        <v>0.4580114430353047</v>
       </c>
       <c r="M2">
-        <v>480.721</v>
+        <v>599.92</v>
       </c>
       <c r="N2">
-        <v>0.03836407166513706</v>
+        <v>0.06079017499772005</v>
       </c>
       <c r="O2">
-        <v>0.2633799035722112</v>
+        <v>0.3453572045362961</v>
       </c>
       <c r="P2">
-        <v>480.721</v>
+        <v>599.92</v>
       </c>
       <c r="Q2">
-        <v>0.03836407166513706</v>
+        <v>0.06079017499772005</v>
       </c>
       <c r="R2">
-        <v>0.2633799035722112</v>
+        <v>0.3453572045362961</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,55 +642,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7152.400000000001</v>
+        <v>7484.599999999999</v>
       </c>
       <c r="V2">
-        <v>0.5707992498304139</v>
+        <v>0.7584180287170548</v>
       </c>
       <c r="W2">
-        <v>0.3999308132180766</v>
+        <v>0.2343829373561452</v>
       </c>
       <c r="X2">
-        <v>0.06609799859563449</v>
+        <v>0.06398079505317383</v>
       </c>
       <c r="Y2">
-        <v>0.3338328146224421</v>
+        <v>0.1704021423029713</v>
       </c>
       <c r="Z2">
-        <v>4.057547028607689</v>
+        <v>2.416561024472552</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06554210871412498</v>
+        <v>0.06262188397835444</v>
       </c>
       <c r="AC2">
-        <v>-0.0646556822851064</v>
+        <v>-0.06262188397835444</v>
       </c>
       <c r="AD2">
-        <v>965.23</v>
+        <v>1319.8</v>
       </c>
       <c r="AE2">
-        <v>28.05754618885238</v>
+        <v>55.53171091533207</v>
       </c>
       <c r="AF2">
-        <v>993.2875461888524</v>
+        <v>1375.331710915332</v>
       </c>
       <c r="AG2">
-        <v>-6159.112453811148</v>
+        <v>-6109.268289084667</v>
       </c>
       <c r="AH2">
-        <v>0.07344743791607192</v>
+        <v>0.1223165983763818</v>
       </c>
       <c r="AI2">
-        <v>0.1167682361016179</v>
+        <v>0.1341861431644689</v>
       </c>
       <c r="AJ2">
-        <v>-0.9666830669396842</v>
+        <v>-1.625051007402713</v>
       </c>
       <c r="AK2">
-        <v>-4.548533417315803</v>
+        <v>-2.209634772693675</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>121.0927110776565</v>
+        <v>99.98484848484848</v>
       </c>
       <c r="AP2">
-        <v>-772.6900581873225</v>
+        <v>-462.8233552336869</v>
       </c>
     </row>
     <row r="3">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.222</v>
+        <v>0.166</v>
       </c>
       <c r="E3">
-        <v>0.284</v>
+        <v>0.244</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>162.7</v>
+        <v>135.7</v>
       </c>
       <c r="L3">
-        <v>0.5103513174404014</v>
+        <v>0.4718358831710708</v>
       </c>
       <c r="M3">
-        <v>41.3</v>
+        <v>47.8</v>
       </c>
       <c r="N3">
-        <v>0.1425612702795996</v>
+        <v>0.1062694530902623</v>
       </c>
       <c r="O3">
-        <v>0.2538414259373079</v>
+        <v>0.3522476050110538</v>
       </c>
       <c r="P3">
-        <v>41.3</v>
+        <v>47.8</v>
       </c>
       <c r="Q3">
-        <v>0.1425612702795996</v>
+        <v>0.1062694530902623</v>
       </c>
       <c r="R3">
-        <v>0.2538414259373079</v>
+        <v>0.3522476050110538</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,55 +770,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2315.8</v>
+        <v>1289</v>
       </c>
       <c r="V3">
-        <v>7.993786675871593</v>
+        <v>2.86571809693197</v>
       </c>
       <c r="W3">
-        <v>0.2777872631039781</v>
+        <v>0.1681953396132871</v>
       </c>
       <c r="X3">
-        <v>0.06262442850649431</v>
+        <v>0.05829854405455182</v>
       </c>
       <c r="Y3">
-        <v>0.2151628345974838</v>
+        <v>0.1098967955587352</v>
       </c>
       <c r="Z3">
-        <v>1.666492420282279</v>
+        <v>-0.1913926544084862</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06251514987644897</v>
+        <v>0.05817395895350823</v>
       </c>
       <c r="AC3">
-        <v>-0.06251514987644897</v>
+        <v>-0.05817395895350823</v>
       </c>
       <c r="AD3">
-        <v>6.33</v>
+        <v>10</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.33</v>
+        <v>10</v>
       </c>
       <c r="AG3">
-        <v>-2309.47</v>
+        <v>-1279</v>
       </c>
       <c r="AH3">
-        <v>0.02138296794243827</v>
+        <v>0.02174858634188778</v>
       </c>
       <c r="AI3">
-        <v>0.00749174487827394</v>
+        <v>0.01077702338614075</v>
       </c>
       <c r="AJ3">
-        <v>1.14343217297019</v>
+        <v>1.542450554751568</v>
       </c>
       <c r="AK3">
-        <v>1.570138761413313</v>
+        <v>3.541955137081141</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>QNB ALAHLI Bank (S.A.E) (CASE:QNBA)</t>
+          <t>Credit Agricole - Egypt Bank (S.A.E.) (CASE:CIEB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -844,10 +844,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.291</v>
+        <v>0.09710000000000001</v>
       </c>
       <c r="E4">
-        <v>0.315</v>
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.0613</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -856,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002040085811162861</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001519092142133271</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>508.8</v>
+        <v>97.3</v>
       </c>
       <c r="L4">
-        <v>0.5534645926248233</v>
+        <v>0.450462962962963</v>
       </c>
       <c r="M4">
-        <v>105.3</v>
+        <v>81.7</v>
       </c>
       <c r="N4">
-        <v>0.03644229105381554</v>
+        <v>0.142533147243545</v>
       </c>
       <c r="O4">
-        <v>0.2069575471698113</v>
+        <v>0.8396711202466599</v>
       </c>
       <c r="P4">
-        <v>105.3</v>
+        <v>81.7</v>
       </c>
       <c r="Q4">
-        <v>0.03644229105381554</v>
+        <v>0.142533147243545</v>
       </c>
       <c r="R4">
-        <v>0.2069575471698113</v>
+        <v>0.8396711202466599</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,67 +895,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>987.1</v>
+        <v>825.4</v>
       </c>
       <c r="V4">
-        <v>0.3416161965738017</v>
+        <v>1.439986043265876</v>
       </c>
       <c r="W4">
-        <v>0.3405166644358185</v>
+        <v>0.2400690846286701</v>
       </c>
       <c r="X4">
-        <v>0.06628065505786529</v>
+        <v>0.0599890110554402</v>
       </c>
       <c r="Y4">
-        <v>0.2742360093779532</v>
+        <v>0.1800800735732299</v>
       </c>
       <c r="Z4">
-        <v>1.411327087683058</v>
+        <v>-1.30988477865373</v>
       </c>
       <c r="AA4">
-        <v>0.002143935888879166</v>
+        <v>-0</v>
       </c>
       <c r="AB4">
-        <v>0.06525611194451432</v>
+        <v>0.05951979869893757</v>
       </c>
       <c r="AC4">
-        <v>-0.06311217605563516</v>
+        <v>-0.05951979869893757</v>
       </c>
       <c r="AD4">
-        <v>368.1</v>
+        <v>38.7</v>
       </c>
       <c r="AE4">
-        <v>14.27274556898991</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>382.37274556899</v>
+        <v>38.7</v>
       </c>
       <c r="AG4">
-        <v>-604.7272544310101</v>
+        <v>-786.6999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.1168666312242208</v>
+        <v>0.06324562837064879</v>
       </c>
       <c r="AI4">
-        <v>0.1574929107247662</v>
+        <v>0.0817490494296578</v>
       </c>
       <c r="AJ4">
-        <v>-0.2646772006554251</v>
+        <v>3.684777517564405</v>
       </c>
       <c r="AK4">
-        <v>-0.419724246096973</v>
+        <v>2.234943181818182</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>77.82241014799155</v>
-      </c>
-      <c r="AP4">
-        <v>-127.8493138331945</v>
       </c>
     </row>
     <row r="5">
@@ -963,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Credit Agricole - Egypt Bank (S.A.E.) (CASE:CIEB)</t>
+          <t>QNB ALAHLI Bank (S.A.E) (CASE:QNBA)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -972,13 +969,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.23</v>
+        <v>0.224</v>
       </c>
       <c r="E5">
-        <v>0.332</v>
-      </c>
-      <c r="F5">
-        <v>0.08500000000000001</v>
+        <v>0.212</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,34 +981,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001689049262589023</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.001202424063773522</v>
       </c>
       <c r="K5">
-        <v>146.9</v>
+        <v>489</v>
       </c>
       <c r="L5">
-        <v>0.544477390659748</v>
+        <v>0.5231065468549423</v>
       </c>
       <c r="M5">
-        <v>93.59999999999999</v>
+        <v>192.4</v>
       </c>
       <c r="N5">
-        <v>0.1107168204400284</v>
+        <v>0.07817007272579531</v>
       </c>
       <c r="O5">
-        <v>0.6371681415929203</v>
+        <v>0.3934560327198364</v>
       </c>
       <c r="P5">
-        <v>93.59999999999999</v>
+        <v>192.4</v>
       </c>
       <c r="Q5">
-        <v>0.1107168204400284</v>
+        <v>0.07817007272579531</v>
       </c>
       <c r="R5">
-        <v>0.6371681415929203</v>
+        <v>0.3934560327198364</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1023,61 +1017,67 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>607.9</v>
+        <v>862.5</v>
       </c>
       <c r="V5">
-        <v>0.7190678968535604</v>
+        <v>0.3504245723804493</v>
       </c>
       <c r="W5">
-        <v>0.4684311224489796</v>
+        <v>0.2390730419477853</v>
       </c>
       <c r="X5">
-        <v>0.06337711055973767</v>
+        <v>0.06362347673016834</v>
       </c>
       <c r="Y5">
-        <v>0.4050540118892419</v>
+        <v>0.1754495652176169</v>
       </c>
       <c r="Z5">
-        <v>-0.7925969447708581</v>
+        <v>0.6455331293509919</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0.0007762045686946582</v>
       </c>
       <c r="AB5">
-        <v>0.0634510408306148</v>
+        <v>0.06205900294237533</v>
       </c>
       <c r="AC5">
-        <v>-0.0634510408306148</v>
+        <v>-0.06128279837368067</v>
       </c>
       <c r="AD5">
-        <v>37.7</v>
+        <v>384.1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>21.70538374665891</v>
       </c>
       <c r="AF5">
-        <v>37.7</v>
+        <v>405.8053837466589</v>
       </c>
       <c r="AG5">
-        <v>-570.1999999999999</v>
+        <v>-456.6946162533411</v>
       </c>
       <c r="AH5">
-        <v>0.04269052202468577</v>
+        <v>0.1415383564368196</v>
       </c>
       <c r="AI5">
-        <v>0.08510158013544018</v>
+        <v>0.1443014745978512</v>
       </c>
       <c r="AJ5">
-        <v>-2.071947674418604</v>
+        <v>-0.2278227026407397</v>
       </c>
       <c r="AK5">
-        <v>3.457853244390541</v>
+        <v>-0.2342377571814117</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>64.88175675675676</v>
+      </c>
+      <c r="AP5">
+        <v>-77.14436085360491</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Commercial International Bank -Egypt S.A.E (CASE:COMI)</t>
+          <t>Housing and Development Bank- Egypt (S.A.E) (CASE:HDBK)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,13 +1097,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.256</v>
+        <v>0.23</v>
       </c>
       <c r="E6">
-        <v>0.281</v>
-      </c>
-      <c r="F6">
-        <v>0.104</v>
+        <v>0.348</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1118,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>650.7</v>
+        <v>136.7</v>
       </c>
       <c r="L6">
-        <v>0.4625390958203014</v>
+        <v>0.4896131805157593</v>
       </c>
       <c r="M6">
-        <v>166.1</v>
+        <v>34.3</v>
       </c>
       <c r="N6">
-        <v>0.02185871453387377</v>
+        <v>0.1092008914358484</v>
       </c>
       <c r="O6">
-        <v>0.2552635623175042</v>
+        <v>0.2509144111192392</v>
       </c>
       <c r="P6">
-        <v>166.1</v>
+        <v>34.3</v>
       </c>
       <c r="Q6">
-        <v>0.02185871453387377</v>
+        <v>0.1092008914358484</v>
       </c>
       <c r="R6">
-        <v>0.2552635623175042</v>
+        <v>0.2509144111192392</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1148,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>952.7</v>
+        <v>265.4</v>
       </c>
       <c r="V6">
-        <v>0.1253750592198768</v>
+        <v>0.8449538363578477</v>
       </c>
       <c r="W6">
-        <v>0.3838032322755692</v>
+        <v>0.3204406938584153</v>
       </c>
       <c r="X6">
-        <v>0.06289298474415474</v>
+        <v>0.06433811337617934</v>
       </c>
       <c r="Y6">
-        <v>0.3209102475314144</v>
+        <v>0.256102580482236</v>
       </c>
       <c r="Z6">
-        <v>2.82433246336077</v>
+        <v>3.028199566160519</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06348325908647717</v>
+        <v>0.06250915410468716</v>
       </c>
       <c r="AC6">
-        <v>-0.06348325908647717</v>
+        <v>-0.06250915410468716</v>
       </c>
       <c r="AD6">
-        <v>227.7</v>
+        <v>57.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>227.7</v>
+        <v>57.8</v>
       </c>
       <c r="AG6">
-        <v>-725</v>
+        <v>-207.6</v>
       </c>
       <c r="AH6">
-        <v>0.02909346451159522</v>
+        <v>0.1554181231513848</v>
       </c>
       <c r="AI6">
-        <v>0.0721094467492162</v>
+        <v>0.0950814278664254</v>
       </c>
       <c r="AJ6">
-        <v>-0.105472955279467</v>
+        <v>-1.949295774647886</v>
       </c>
       <c r="AK6">
-        <v>-0.3287981859410431</v>
+        <v>-0.6061313868613136</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1213,7 +1210,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Housing and Development Bank- Egypt (S.A.E) (CASE:HDBK)</t>
+          <t>Commercial International Bank -Egypt S.A.E (CASE:COMI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1222,10 +1219,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.252</v>
+        <v>0.23</v>
       </c>
       <c r="E7">
-        <v>0.348</v>
+        <v>0.204</v>
+      </c>
+      <c r="F7">
+        <v>0.17</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1240,28 +1240,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>119.7</v>
+        <v>673</v>
       </c>
       <c r="L7">
-        <v>0.5010464629552114</v>
+        <v>0.4363895733367916</v>
       </c>
       <c r="M7">
-        <v>50.3</v>
+        <v>213.8</v>
       </c>
       <c r="N7">
-        <v>0.1491696322657177</v>
+        <v>0.03847884383492612</v>
       </c>
       <c r="O7">
-        <v>0.4202172096908939</v>
+        <v>0.3176820208023775</v>
       </c>
       <c r="P7">
-        <v>50.3</v>
+        <v>213.8</v>
       </c>
       <c r="Q7">
-        <v>0.1491696322657177</v>
+        <v>0.03847884383492612</v>
       </c>
       <c r="R7">
-        <v>0.4202172096908939</v>
+        <v>0.3176820208023775</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1270,55 +1270,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>555.4</v>
+        <v>3408.1</v>
       </c>
       <c r="V7">
-        <v>1.647093712930012</v>
+        <v>0.613375807641776</v>
       </c>
       <c r="W7">
-        <v>0.416058394160584</v>
+        <v>0.2296928327645051</v>
       </c>
       <c r="X7">
-        <v>0.06591534213340369</v>
+        <v>0.06090786639154877</v>
       </c>
       <c r="Y7">
-        <v>0.3501430520271803</v>
+        <v>0.1687849663729563</v>
       </c>
       <c r="Z7">
-        <v>0.7400867410161091</v>
+        <v>0.6994104308390023</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06582810548373565</v>
+        <v>0.06273461385202174</v>
       </c>
       <c r="AC7">
-        <v>-0.06582810548373565</v>
+        <v>-0.06273461385202174</v>
       </c>
       <c r="AD7">
-        <v>40.9</v>
+        <v>511.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>40.9</v>
+        <v>511.9</v>
       </c>
       <c r="AG7">
-        <v>-514.5</v>
+        <v>-2896.2</v>
       </c>
       <c r="AH7">
-        <v>0.1081724411531341</v>
+        <v>0.08435779967700471</v>
       </c>
       <c r="AI7">
-        <v>0.09580698055750761</v>
+        <v>0.1289160874382996</v>
       </c>
       <c r="AJ7">
-        <v>2.901861252115059</v>
+        <v>-1.088756061802188</v>
       </c>
       <c r="AK7">
-        <v>4.003891050583658</v>
+        <v>-5.146969966234225</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Abu Dhabi Islamic Bank - Egypt S.A.E. (CASE:ADIB)</t>
+          <t>Suez Canal Bank (S.A.E) (CASE:CANA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1344,13 +1344,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.253</v>
-      </c>
-      <c r="E8">
-        <v>0.33</v>
-      </c>
-      <c r="F8">
-        <v>0.136</v>
+        <v>0.262</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1359,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003373394744297909</v>
+        <v>0.0008043182988565342</v>
       </c>
       <c r="J8">
-        <v>0.00238295035716393</v>
+        <v>0.0004208352709187439</v>
       </c>
       <c r="K8">
-        <v>73</v>
+        <v>33.9</v>
       </c>
       <c r="L8">
-        <v>0.3576678098971093</v>
+        <v>0.3048561151079137</v>
       </c>
       <c r="M8">
-        <v>0.221</v>
+        <v>3.06</v>
       </c>
       <c r="N8">
-        <v>0.001439739413680782</v>
+        <v>0.02326996197718631</v>
       </c>
       <c r="O8">
-        <v>0.003027397260273973</v>
+        <v>0.09026548672566372</v>
       </c>
       <c r="P8">
-        <v>0.221</v>
+        <v>3.06</v>
       </c>
       <c r="Q8">
-        <v>0.001439739413680782</v>
+        <v>0.02326996197718631</v>
       </c>
       <c r="R8">
-        <v>0.003027397260273973</v>
+        <v>0.09026548672566372</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1395,55 +1389,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>75.3</v>
+        <v>519.7</v>
       </c>
       <c r="V8">
-        <v>0.4905537459283387</v>
+        <v>3.952091254752852</v>
       </c>
       <c r="W8">
-        <v>0.4484029484029484</v>
+        <v>0.1751937984496124</v>
       </c>
       <c r="X8">
-        <v>0.08059485036420884</v>
+        <v>0.0740481906456032</v>
       </c>
       <c r="Y8">
-        <v>0.3678080980387395</v>
+        <v>0.1011456078040092</v>
       </c>
       <c r="Z8">
-        <v>1.337418318127312</v>
+        <v>-0.1653784397658025</v>
       </c>
       <c r="AA8">
-        <v>0.003187001458859059</v>
+        <v>-6.959708050296064e-05</v>
       </c>
       <c r="AB8">
-        <v>0.07394184194916449</v>
+        <v>0.06901588429456708</v>
       </c>
       <c r="AC8">
-        <v>-0.07075484049030543</v>
+        <v>-0.06908548137507003</v>
       </c>
       <c r="AD8">
-        <v>78.7</v>
+        <v>53.7</v>
       </c>
       <c r="AE8">
-        <v>8.007450663443985</v>
+        <v>4.702799025835767</v>
       </c>
       <c r="AF8">
-        <v>86.70745066344399</v>
+        <v>58.40279902583577</v>
       </c>
       <c r="AG8">
-        <v>11.407450663444</v>
+        <v>-461.2972009741643</v>
       </c>
       <c r="AH8">
-        <v>0.3609690308271507</v>
+        <v>0.3075404855822595</v>
       </c>
       <c r="AI8">
-        <v>0.2568291976170911</v>
+        <v>0.2043464907443272</v>
       </c>
       <c r="AJ8">
-        <v>0.06917486515952037</v>
+        <v>1.398729884946178</v>
       </c>
       <c r="AK8">
-        <v>0.04348885490896875</v>
+        <v>1.97222198065174</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1452,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>34.36681222707423</v>
+        <v>52.13592233009709</v>
       </c>
       <c r="AP8">
-        <v>4.981419503687334</v>
+        <v>-447.8613601690915</v>
       </c>
     </row>
     <row r="9">
@@ -1466,7 +1460,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Suez Canal Bank (S.A.E) (CASE:CANA)</t>
+          <t>Abu Dhabi Islamic Bank - Egypt S.A.E. (CASE:ADIB)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1475,7 +1469,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.283</v>
+        <v>0.208</v>
+      </c>
+      <c r="E9">
+        <v>0.434</v>
+      </c>
+      <c r="F9">
+        <v>0.145</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1484,94 +1484,103 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003191142466817553</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.002173946422972891</v>
       </c>
       <c r="K9">
-        <v>27.9</v>
+        <v>70</v>
       </c>
       <c r="L9">
-        <v>0.2700871248789932</v>
+        <v>0.3421309872922776</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>1.16</v>
       </c>
       <c r="N9">
-        <v>-0</v>
+        <v>0.007641633728590249</v>
       </c>
       <c r="O9">
-        <v>-0</v>
+        <v>0.01657142857142857</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>1.16</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.007641633728590249</v>
       </c>
       <c r="R9">
-        <v>-0</v>
+        <v>0.01657142857142857</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
       <c r="U9">
-        <v>898.6</v>
+        <v>51.8</v>
       </c>
       <c r="V9">
-        <v>10.7103694874851</v>
+        <v>0.3412384716732542</v>
       </c>
       <c r="W9">
-        <v>0.1787315823190262</v>
+        <v>0.28</v>
       </c>
       <c r="X9">
-        <v>0.07294565316099282</v>
+        <v>0.08763942367521646</v>
       </c>
       <c r="Y9">
-        <v>0.1057859291580334</v>
+        <v>0.1923605763247836</v>
       </c>
       <c r="Z9">
-        <v>-0.1598897952234278</v>
+        <v>0.7522460908566352</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.001635342698413123</v>
       </c>
       <c r="AB9">
-        <v>0.0709847097864944</v>
+        <v>0.07196466428491341</v>
       </c>
       <c r="AC9">
-        <v>-0.0709847097864944</v>
+        <v>-0.07032932158650029</v>
       </c>
       <c r="AD9">
-        <v>28</v>
+        <v>104.1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>18.58546125644564</v>
       </c>
       <c r="AF9">
-        <v>28</v>
+        <v>122.6854612564456</v>
       </c>
       <c r="AG9">
-        <v>-870.6</v>
+        <v>70.88546125644564</v>
       </c>
       <c r="AH9">
-        <v>0.2502234137622877</v>
+        <v>0.4469652443333723</v>
       </c>
       <c r="AI9">
-        <v>0.126410835214447</v>
+        <v>0.2720386171976451</v>
       </c>
       <c r="AJ9">
-        <v>1.106648023388839</v>
+        <v>0.3183210114234337</v>
       </c>
       <c r="AK9">
-        <v>1.285777580859548</v>
+        <v>0.1775752579598765</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>23.82151029748283</v>
+      </c>
+      <c r="AP9">
+        <v>16.22092934930106</v>
       </c>
     </row>
     <row r="10">
@@ -1591,10 +1600,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.313</v>
+        <v>0.221</v>
       </c>
       <c r="E10">
-        <v>0.4379999999999999</v>
+        <v>0.239</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1603,34 +1612,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.0008886136083602653</v>
+        <v>-0.001048426426892449</v>
       </c>
       <c r="J10">
-        <v>-0.0006850256128121204</v>
+        <v>-0.0007338984988247141</v>
       </c>
       <c r="K10">
-        <v>135.5</v>
+        <v>101.5</v>
       </c>
       <c r="L10">
-        <v>0.5888744024337245</v>
+        <v>0.4675264854905574</v>
       </c>
       <c r="M10">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="N10">
-        <v>0.07187969924812029</v>
+        <v>0.1114000866926745</v>
       </c>
       <c r="O10">
-        <v>0.1763837638376384</v>
+        <v>0.2532019704433497</v>
       </c>
       <c r="P10">
-        <v>23.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q10">
-        <v>0.07187969924812029</v>
+        <v>0.1114000866926745</v>
       </c>
       <c r="R10">
-        <v>0.1763837638376384</v>
+        <v>0.2532019704433497</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1639,55 +1648,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>759.6</v>
+        <v>262.7</v>
       </c>
       <c r="V10">
-        <v>2.284511278195489</v>
+        <v>1.138708279150412</v>
       </c>
       <c r="W10">
-        <v>0.417823003391921</v>
+        <v>0.2190332326283988</v>
       </c>
       <c r="X10">
-        <v>0.08017267439493975</v>
+        <v>0.084983276392565</v>
       </c>
       <c r="Y10">
-        <v>0.3376503289969813</v>
+        <v>0.1340499562358338</v>
       </c>
       <c r="Z10">
-        <v>2.877064570473851</v>
+        <v>-2.012758289537923</v>
       </c>
       <c r="AA10">
-        <v>-0.00197086292048889</v>
+        <v>0.001477160287188881</v>
       </c>
       <c r="AB10">
-        <v>0.07211256311135104</v>
+        <v>0.07477489447326831</v>
       </c>
       <c r="AC10">
-        <v>-0.07408342603183993</v>
+        <v>-0.07329773418607943</v>
       </c>
       <c r="AD10">
-        <v>177.8</v>
+        <v>159.5</v>
       </c>
       <c r="AE10">
-        <v>5.777349956418485</v>
+        <v>10.53806688639175</v>
       </c>
       <c r="AF10">
-        <v>183.5773499564185</v>
+        <v>170.0380668863918</v>
       </c>
       <c r="AG10">
-        <v>-576.0226500435815</v>
+        <v>-92.66193311360823</v>
       </c>
       <c r="AH10">
-        <v>0.3557167350435378</v>
+        <v>0.4243122401810586</v>
       </c>
       <c r="AI10">
-        <v>0.2837461774647668</v>
+        <v>0.2360203807959049</v>
       </c>
       <c r="AJ10">
-        <v>2.365376074629998</v>
+        <v>-0.6712781133762975</v>
       </c>
       <c r="AK10">
-        <v>5.114625253629517</v>
+        <v>-0.202434404776316</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1696,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>186.9610935856993</v>
+        <v>84.8404255319149</v>
       </c>
       <c r="AP10">
-        <v>-605.7020505190131</v>
+        <v>-49.28826229447247</v>
       </c>
     </row>
   </sheetData>
